--- a/data/distance.xlsx
+++ b/data/distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300D81D8-B090-1E40-80F4-7CE49E4F1964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDCEA31-71B4-FC47-B3C9-E804224D090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{036E13A5-FEC9-1A42-918D-E7C406446A46}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>Zurich</t>
   </si>
   <si>
-    <t>distance</t>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -518,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FCC2BE-54A0-9946-87FD-A52D141A2E78}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
